--- a/assets/disciplinas/LOT2053.xlsx
+++ b/assets/disciplinas/LOT2053.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Introduzir o estudante em conceitos importantes utilizados nas ciências microbiológicas, apresentando os conceitos fundamentais relacionados à história, mercado, genética, filogenia, e cultivo de microrganismos.</t>
+    <t>4873328 - Fernando Segato</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,61 +79,49 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>4873328 - Fernando Segato</t>
+    <t>Programa resumido:</t>
+  </si>
+  <si>
+    <t>Short syllabus:</t>
+  </si>
+  <si>
+    <t>History of the microbiology, industrial microbiology, microbial phylogeny, characterization of the microorganisms, nutrition and cultivation of the microorganisms, virus, filamentous fungi, yeast, micro-algae, bacteria.</t>
+  </si>
+  <si>
+    <t>Programa:</t>
+  </si>
+  <si>
+    <t>Syllabus:</t>
+  </si>
+  <si>
+    <t>1. History of the microbiology: microbiology, science and society; Leeuwenhoek and hismicroscopes, origin of the Leeuwenhoek amino acids, main philosophers of the microbiology,modern microbiology.2. Industrial microbiology: general vision of the market involving microbiology, main products frommicrobial origin.3. Microbial phylogeny: classification and evolution of the microorganisms main classes;prokaryotic organisms (eubacteria and archaebacteria); eukaryotic organisms (yeasts, fungi,filamentous, algae, protozoa).4. Characterization of the microorganisms: Pure cultivation techniques, microscopes, microscopytechniques, automated technology.5. Nutrition and cultivation of microorganisms: nutritional demands and microbial media; cultivation and growth of microorganisms.6. Genetics of microorganisms: the regulation of gene expression in bacteria; mutation, vantages and disadvantages in industrial applications; strain improvement.7. Virus, bacteria, filamentous fungi, micro-algae, yeasts: morphology, classification and replication.</t>
+  </si>
+  <si>
+    <t>Avaliação:</t>
+  </si>
+  <si>
+    <t>Método:</t>
   </si>
   <si>
     <t>5840685 - Maria Bernadete de Medeiros</t>
   </si>
   <si>
-    <t>Programa resumido:</t>
-  </si>
-  <si>
-    <t>Histórico da microbiologia, microbiologia industrial, filogênia microbiana, caracterização dos microrganismos, nutrição e cultivo de microrganismos, virus, fungos filamentosos, leveduras, micro-algas, bactérias.</t>
-  </si>
-  <si>
-    <t>Short syllabus:</t>
-  </si>
-  <si>
-    <t>History of the microbiology, industrial microbiology, microbial phylogeny, characterization of the microorganisms, nutrition and cultivation of the microorganisms, virus, filamentous fungi, yeast, micro-algae, bacteria.</t>
-  </si>
-  <si>
-    <t>Programa:</t>
-  </si>
-  <si>
-    <t>1. Histórico da microbiologia: microbiologia, ciência e sociedade;  Leeuwenhoek e seusseus microscópios, origem dos animálculos de Leeuwenhoek, principais pensadores da microbiologia, microbiologia moderna.2. Microbiologia industrial: visão geral do mercado envolvendo microbiologia, principais produtos de origem microbiana.3. Filogênia microbiana: classificação e evolução das principais classes dos microrganismos; organismos procarióticos (eubactérias e arqueobactérias); organismos eucarióticos (leveduras, fungos filamentosos, algas, protozoários).4. Caracterização dos microrganismos: técnicas de cultura pura, microscópios, técnicas de microscopia, preparo dos microrganismos para microscopia, informações utilizadas para caracterizar os microrganismos, tecnologia automatizada.5. Nutrição e cultivo de microrganismos: exigências nutricionais e meios microbiológicos; cultivo ecrescimento de microrganismos.6. Genética de microrganismos: regulação da expressão gênica em bactérias; mutação, vantagens e desvantagens para aplicações industriais; melhoramento de cepas.7. Virus, bactérias, fungos filamentosos, micro-algas, leveduras: morfologia, classificação e replicação.</t>
-  </si>
-  <si>
-    <t>Syllabus:</t>
-  </si>
-  <si>
-    <t>1. History of the microbiology: microbiology, science and society; Leeuwenhoek and hismicroscopes, origin of the Leeuwenhoek amino acids, main philosophers of the microbiology,modern microbiology.2. Industrial microbiology: general vision of the market involving microbiology, main products frommicrobial origin.3. Microbial phylogeny: classification and evolution of the microorganisms main classes;prokaryotic organisms (eubacteria and archaebacteria); eukaryotic organisms (yeasts, fungi,filamentous, algae, protozoa).4. Characterization of the microorganisms: Pure cultivation techniques, microscopes, microscopytechniques, automated technology.5. Nutrition and cultivation of microorganisms: nutritional demands and microbial media; cultivation and growth of microorganisms.6. Genetics of microorganisms: the regulation of gene expression in bacteria; mutation, vantages and disadvantages in industrial applications; strain improvement.7. Virus, bacteria, filamentous fungi, micro-algae, yeasts: morphology, classification and replication.</t>
-  </si>
-  <si>
-    <t>Avaliação:</t>
-  </si>
-  <si>
-    <t>Método:</t>
+    <t>Critério:</t>
   </si>
   <si>
     <t>A avaliação será feita por meio de provas escritas, trabalhos, seminários e participação.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>A Nota final (NF) será calculada da seguinte maneira: NF = (P1 + P2)/2.</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>A recuperação será feita por meio de uma prova escrita (PR) e a média de recuperação (MR)</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>1. PELCZAR Jr, M.J., CHAN, S.S., KRIEG, N.R. Microbiologia conceitos e aplicações, 2 ed. (Vol 1), São Paulo: Pearson Education do Brasil, 1997.2. MADIGAN, M.T., MARTINKO, J.M., PARKER, I. Microbiologia de Brock. São Paulo: Prentice Hall, 2004.3. BARBOSA, H.R., TORRES, B.B. Microbiologia Básica, Rio de Janeiro: Atheneu, 2005.4. VERMELHO A.B., FREIRE, M.C., BRANQUINHO, M.H. Bacteorologia Geral, Rio de Janeiro: GuanabaraKoogan, 2008.5. TORTORA, G.J., FUNKE, B.R., CASE, C.L. Microbiologia, Artmed, Porto Alegre, RS, 2012.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -496,7 +484,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -621,34 +609,40 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="60" customHeight="1">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B14" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="60" customHeight="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
@@ -659,30 +653,30 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="120" customHeight="1">
-      <c r="A18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="60" customHeight="1">
+      <c r="A19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -697,7 +691,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
+    <row r="21" spans="1:3" ht="120" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>34</v>
       </c>
@@ -708,39 +702,17 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="60" customHeight="1">
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="2" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="120" customHeight="1">
-      <c r="A23" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="30" customHeight="1">
-      <c r="B25" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOT2053.xlsx
+++ b/assets/disciplinas/LOT2053.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,18 +70,27 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Introduzir o estudante em conceitos importantes utilizados nas ciências microbiológicas, apresentando os conceitos fundamentais relacionados à história, mercado, genética, filogenia, e cultivo de microrganismos.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>4873328 - Fernando Segato</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
+    <t>5840685 - Maria Bernadete de Medeiros</t>
   </si>
   <si>
     <t>Programa resumido:</t>
   </si>
   <si>
+    <t>Histórico da microbiologia, microbiologia industrial, filogênia microbiana, caracterização dos microrganismos, nutrição e cultivo de microrganismos, virus, fungos filamentosos, leveduras, micro-algas, bactérias.</t>
+  </si>
+  <si>
     <t>Short syllabus:</t>
   </si>
   <si>
@@ -91,6 +100,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>1. Histórico da microbiologia: microbiologia, ciência e sociedade;  Leeuwenhoek e seusseus microscópios, origem dos animálculos de Leeuwenhoek, principais pensadores da microbiologia, microbiologia moderna.2. Microbiologia industrial: visão geral do mercado envolvendo microbiologia, principais produtos de origem microbiana.3. Filogênia microbiana: classificação e evolução das principais classes dos microrganismos; organismos procarióticos (eubactérias e arqueobactérias); organismos eucarióticos (leveduras, fungos filamentosos, algas, protozoários).4. Caracterização dos microrganismos: técnicas de cultura pura, microscópios, técnicas de microscopia, preparo dos microrganismos para microscopia, informações utilizadas para caracterizar os microrganismos, tecnologia automatizada.5. Nutrição e cultivo de microrganismos: exigências nutricionais e meios microbiológicos; cultivo ecrescimento de microrganismos.6. Genética de microrganismos: regulação da expressão gênica em bactérias; mutação, vantagens e desvantagens para aplicações industriais; melhoramento de cepas.7. Virus, bactérias, fungos filamentosos, micro-algas, leveduras: morfologia, classificação e replicação.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -103,25 +115,25 @@
     <t>Método:</t>
   </si>
   <si>
-    <t>5840685 - Maria Bernadete de Medeiros</t>
+    <t>A avaliação será feita por meio de provas escritas, trabalhos, seminários e participação.</t>
   </si>
   <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>A avaliação será feita por meio de provas escritas, trabalhos, seminários e participação.</t>
+    <t>A Nota final (NF) será calculada da seguinte maneira: NF = (P1 + P2)/2.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>A Nota final (NF) será calculada da seguinte maneira: NF = (P1 + P2)/2.</t>
+    <t>A recuperação será feita por meio de uma prova escrita (PR) e a média de recuperação (MR)</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>A recuperação será feita por meio de uma prova escrita (PR) e a média de recuperação (MR)</t>
+    <t>1. PELCZAR Jr, M.J., CHAN, S.S., KRIEG, N.R. Microbiologia conceitos e aplicações, 2 ed. (Vol 1), São Paulo: Pearson Education do Brasil, 1997.2. MADIGAN, M.T., MARTINKO, J.M., PARKER, I. Microbiologia de Brock. São Paulo: Prentice Hall, 2004.3. BARBOSA, H.R., TORRES, B.B. Microbiologia Básica, Rio de Janeiro: Atheneu, 2005.4. VERMELHO A.B., FREIRE, M.C., BRANQUINHO, M.H. Bacteorologia Geral, Rio de Janeiro: GuanabaraKoogan, 2008.5. TORTORA, G.J., FUNKE, B.R., CASE, C.L. Microbiologia, Artmed, Porto Alegre, RS, 2012.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -484,13 +496,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -609,40 +621,34 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="60" customHeight="1">
-      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="120" customHeight="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="60" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
@@ -653,30 +659,30 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="120" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="60" customHeight="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -691,7 +697,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>34</v>
       </c>
@@ -702,17 +708,39 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" ht="60" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="120" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="B23" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30" customHeight="1">
+      <c r="B25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
